--- a/heroin_sensitivity_analysis/100000_6-05_11-1729/confidence_intervals_alpha_linear.xlsx
+++ b/heroin_sensitivity_analysis/100000_6-05_11-1729/confidence_intervals_alpha_linear.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillips/Documents/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillips/Documents/Research/Heroin_model/heroin_sensitivity_analysis/100000_6-05_11-1729/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DCA5E0F-74A8-A44D-9686-C4558A48A4D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1777B8C-2330-884B-B43E-14F0575F82DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="960" windowWidth="13400" windowHeight="16240" xr2:uid="{EFE99473-7E7E-1445-B5C2-5BAE61AC9FB4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
   <si>
     <t>Confidence intervals for parameters for sensitivity of population classes (alpha linear) case</t>
   </si>
@@ -706,6 +706,9 @@
   </si>
   <si>
     <t>R_0      9.635440e-01  6.331988e-03  9.647661e-01  5.242665e-03</t>
+  </si>
+  <si>
+    <t>From 100000_6-05_11-1729 folder</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26A9C74-3A57-824B-8358-FEB56B8C4D84}">
   <dimension ref="A1:A132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:A132"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,6 +1114,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
